--- a/StructureDefinition-profile-AdverseEvent.xlsx
+++ b/StructureDefinition-profile-AdverseEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6154119-06:00</t>
+    <t>2026-02-09T22:05:42.9753401-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,33 +417,193 @@
     <t>AdverseEvent.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.status|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.status from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The current state of the adverse event or potential adverse event.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.status` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates who or what participated in the adverse event and how they were involved.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.participant` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:expectedInResearchStudy</t>
+  </si>
+  <si>
+    <t>expectedInResearchStudy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.expectedInResearchStudy|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.expectedInResearchStudy from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Considered likely or probable or anticipated in the research study.  Whether the reported event matches any of the outcomes for the patient that are considered by the study as known or likely.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.expectedInResearchStudy` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:contributingFactor</t>
+  </si>
+  <si>
+    <t>contributingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.contributingFactor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.contributingFactor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The contributing factors suspected to have increased the probability or severity of the adverse event.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.contributingFactor` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:preventiveAction</t>
+  </si>
+  <si>
+    <t>preventiveAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.preventiveAction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Preventive actions that contributed to avoiding the adverse event.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.preventiveAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:mitigatingAction</t>
+  </si>
+  <si>
+    <t>mitigatingAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.mitigatingAction|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.mitigatingAction from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The ameliorating action taken after the adverse event occured in order to reduce the extent of harm.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.mitigatingAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:supportingInfo</t>
+  </si>
+  <si>
+    <t>supportingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.supportingInfo|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.supportingInfo from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Supporting information relevant to the event.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.supportingInfo` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.extension:note</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.note|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.note from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Comments made about the adverse event by the performer, subject or other participants.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.note` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>AdverseEvent.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -451,6 +611,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -620,20 +783,13 @@
     <t>AdverseEvent.date.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.extension:occurrence</t>
+  </si>
+  <si>
+    <t>occurrence</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.occurrence|0.0.1-snapshot-3}
@@ -643,8 +799,7 @@
     <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `AdverseEvent.occurrence[x]` is mapped to FHIR R4 element `AdverseEvent.date`.</t>
   </si>
   <si>
     <t>AdverseEvent.date.value</t>
@@ -714,14 +869,24 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.resultingEffect|0.0.1-snapshot-3}
+    <t>AdverseEvent.resultingCondition.extension:resultingEffect</t>
+  </si>
+  <si>
+    <t>resultingEffect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for AdverseEvent.resultingEffect from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Information about the condition that occurred as a result of the adverse event, such as hives due to the exposure to a substance (for example, a drug or a chemical) or a broken leg as a result of the fall.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.resultingEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdverseEvent.resultingEffect` is mapped to FHIR R4 element `AdverseEvent.resultingCondition`.</t>
   </si>
   <si>
     <t>AdverseEvent.resultingCondition.reference</t>
@@ -881,11 +1046,20 @@
     <t>AdverseEvent.recorder.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.recorder|0.0.1-snapshot-3}
-</t>
+    <t>AdverseEvent.recorder.extension:recorder</t>
+  </si>
+  <si>
+    <t>recorder</t>
   </si>
   <si>
     <t>Cross-version extension for AdverseEvent.recorder from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.recorder` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdverseEvent.recorder` is mapped to FHIR R4 element `AdverseEvent.recorder`.</t>
   </si>
   <si>
     <t>AdverseEvent.recorder.reference</t>
@@ -932,6 +1106,9 @@
     <t>AdverseEvent.suspectEntity.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -975,6 +1152,12 @@
     <t>AdverseEvent.suspectEntity.instance.extension</t>
   </si>
   <si>
+    <t>AdverseEvent.suspectEntity.instance.extension:instance</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.instance|0.0.1-snapshot-3}
 </t>
   </si>
@@ -982,6 +1165,27 @@
     <t>Cross-version extension for AdverseEvent.suspectEntity.instance[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `AdverseEvent.suspectEntity.instance[x]` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.instance`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.extension:instanceCanonical</t>
+  </si>
+  <si>
+    <t>instanceCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.extension:instanceReference</t>
+  </si>
+  <si>
+    <t>instanceReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
+  </si>
+  <si>
     <t>AdverseEvent.suspectEntity.instance.reference</t>
   </si>
   <si>
@@ -1040,6 +1244,12 @@
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension:entityRelatedness</t>
+  </si>
+  <si>
+    <t>entityRelatedness</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.causality.entityRelatedness|0.0.1-snapshot-3}
@@ -1052,6 +1262,9 @@
     <t>The result of the assessment regarding the relatedness of the suspected entity to the event.</t>
   </si>
   <si>
+    <t>Element `AdverseEvent.suspectEntity.causality.entityRelatedness` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.causality.productRelatedness`.</t>
+  </si>
+  <si>
     <t>AdverseEvent.suspectEntity.causality.productRelatedness.value</t>
   </si>
   <si>
@@ -1083,14 +1296,20 @@
     <t>AdverseEvent.suspectEntity.causality.author.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.causality.author|0.0.1-snapshot-3}
-</t>
+    <t>AdverseEvent.suspectEntity.causality.author.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
   <si>
     <t>Cross-version extension for AdverseEvent.suspectEntity.causality.author from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>The author of the information on the possible cause of the event.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.suspectEntity.causality.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdverseEvent.suspectEntity.causality.author` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.causality.author`.</t>
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causality.author.reference</t>
@@ -1454,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1463,9 +1682,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="55.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2379,11 +2598,11 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2398,17 +2617,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -2445,16 +2662,14 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2475,7 +2690,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2483,18 +2698,20 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>78</v>
@@ -2506,20 +2723,18 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -2567,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2576,7 +2791,7 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
@@ -2585,17 +2800,19 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2604,7 +2821,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
@@ -2613,23 +2830,21 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -2677,19 +2892,19 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -2700,18 +2915,20 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>85</v>
@@ -2720,21 +2937,23 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -2759,13 +2978,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -2783,22 +3002,22 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>78</v>
@@ -2806,12 +3025,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -2829,18 +3050,20 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>78</v>
@@ -2865,13 +3088,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -2889,7 +3112,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2898,13 +3121,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>78</v>
@@ -2915,9 +3138,11 @@
         <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2926,7 +3151,7 @@
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -2935,18 +3160,20 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -2971,13 +3198,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -2995,22 +3222,22 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3018,21 +3245,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3041,23 +3270,21 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3105,22 +3332,22 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>78</v>
@@ -3128,12 +3355,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3142,7 +3371,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3151,19 +3380,19 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3213,22 +3442,22 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>78</v>
@@ -3236,12 +3465,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3250,7 +3481,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
@@ -3259,18 +3490,20 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3319,22 +3552,22 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3342,42 +3575,46 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3431,19 +3668,19 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19">
@@ -3459,10 +3696,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3471,19 +3708,23 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3519,29 +3760,31 @@
         <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
@@ -3552,10 +3795,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3563,7 +3806,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>85</v>
@@ -3572,19 +3815,19 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3611,13 +3854,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3635,22 +3878,22 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3658,10 +3901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3672,7 +3915,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3681,16 +3924,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3717,13 +3960,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3741,22 +3984,22 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3764,10 +4007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3790,13 +4033,13 @@
         <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3823,13 +4066,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>78</v>
+        <v>218</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -3847,7 +4090,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3862,7 +4105,7 @@
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3870,18 +4113,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>85</v>
@@ -3896,18 +4139,20 @@
         <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -3955,10 +4200,10 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>85</v>
@@ -3970,7 +4215,7 @@
         <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -3978,10 +4223,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3992,7 +4237,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4004,15 +4249,17 @@
         <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4061,13 +4308,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4076,7 +4323,7 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -4084,10 +4331,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4107,16 +4354,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4167,7 +4414,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4179,21 +4426,21 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4201,10 +4448,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4216,13 +4463,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>194</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4261,31 +4508,31 @@
         <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4296,10 +4543,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4322,13 +4569,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4367,19 +4614,17 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4402,12 +4647,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4425,19 +4672,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4487,33 +4734,33 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4533,20 +4780,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4571,13 +4816,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -4595,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4607,21 +4852,21 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4644,17 +4889,15 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4703,7 +4946,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4721,15 +4964,15 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4752,16 +4995,16 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4811,7 +5054,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4826,18 +5069,18 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4848,7 +5091,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4860,13 +5103,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4917,13 +5160,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -4940,10 +5183,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4963,16 +5206,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4999,13 +5242,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5023,7 +5266,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5035,21 +5278,21 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5060,7 +5303,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5069,16 +5312,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5105,43 +5348,43 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5152,12 +5395,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5175,18 +5420,20 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5211,13 +5458,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5235,19 +5482,19 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5258,10 +5505,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5284,15 +5531,17 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5341,7 +5590,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5350,24 +5599,24 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5387,18 +5636,20 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>219</v>
+        <v>286</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5423,13 +5674,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5447,7 +5698,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5459,21 +5710,21 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>221</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5481,10 +5732,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5493,18 +5744,20 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5541,45 +5794,45 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5599,18 +5852,20 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5659,33 +5914,33 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5708,17 +5963,15 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -5767,7 +6020,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5776,7 +6029,7 @@
         <v>85</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>97</v>
@@ -5785,15 +6038,15 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5816,17 +6069,15 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -5851,13 +6102,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -5875,7 +6126,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -5893,15 +6144,15 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5924,17 +6175,15 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -5959,13 +6208,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -5983,7 +6232,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6001,15 +6250,15 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6032,17 +6281,15 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6067,13 +6314,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6091,7 +6338,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>250</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6109,15 +6356,15 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6128,7 +6375,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6140,13 +6387,13 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6197,13 +6444,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -6212,7 +6459,7 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -6220,10 +6467,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6234,7 +6481,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6243,16 +6490,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6303,33 +6550,33 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6340,7 +6587,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6352,13 +6599,13 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6397,56 +6644,58 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -6458,16 +6707,16 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>134</v>
+        <v>333</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6517,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6535,51 +6784,49 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -6627,19 +6874,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -6650,18 +6897,18 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>85</v>
@@ -6676,15 +6923,17 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -6709,13 +6958,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -6733,10 +6982,10 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>85</v>
@@ -6751,15 +7000,15 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6779,18 +7028,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -6839,7 +7090,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -6851,21 +7102,21 @@
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>221</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6873,10 +7124,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -6885,18 +7136,20 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>194</v>
+        <v>299</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -6933,45 +7186,45 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6979,10 +7232,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -6991,16 +7244,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7051,7 +7304,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>198</v>
+        <v>338</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7063,7 +7316,7 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7074,10 +7327,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7088,7 +7341,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7100,17 +7353,15 @@
         <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>189</v>
+        <v>343</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7159,16 +7410,16 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>97</v>
@@ -7177,15 +7428,15 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7205,20 +7456,18 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7243,13 +7492,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -7267,7 +7516,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7279,32 +7528,32 @@
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7313,19 +7562,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>241</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>242</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7375,67 +7624,69 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>247</v>
+        <v>352</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7483,19 +7734,19 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>250</v>
+        <v>354</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -7506,21 +7757,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -7532,13 +7783,13 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>288</v>
+        <v>357</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7589,13 +7840,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -7612,10 +7863,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7638,13 +7889,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7695,7 +7946,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7713,19 +7964,19 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>316</v>
+        <v>361</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7744,17 +7995,15 @@
         <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -7791,19 +8040,19 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -7821,51 +8070,51 @@
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>317</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>363</v>
+      </c>
       <c r="D60" t="s" s="2">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -7913,7 +8162,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -7931,23 +8180,25 @@
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>85</v>
@@ -7959,18 +8210,20 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>156</v>
+        <v>364</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>319</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -7995,13 +8248,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8019,19 +8272,19 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -8042,18 +8295,20 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>85</v>
@@ -8065,18 +8320,20 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>364</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -8125,19 +8382,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -8148,10 +8405,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>326</v>
+        <v>373</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8171,18 +8428,20 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8231,7 +8490,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8240,24 +8499,24 @@
         <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8265,10 +8524,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -8277,18 +8536,20 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -8313,55 +8574,57 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8381,18 +8644,20 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -8441,33 +8706,33 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8487,18 +8752,20 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -8520,7 +8787,7 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
         <v>78</v>
@@ -8547,7 +8814,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8559,21 +8826,21 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8584,7 +8851,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -8596,13 +8863,13 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8653,13 +8920,13 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
@@ -8676,10 +8943,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8702,13 +8969,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8759,7 +9026,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -8777,23 +9044,23 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
@@ -8808,15 +9075,17 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>194</v>
+        <v>348</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -8853,19 +9122,19 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -8883,47 +9152,51 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>341</v>
+        <v>130</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -8971,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>198</v>
+        <v>354</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -8989,15 +9262,15 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9020,17 +9293,15 @@
         <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>228</v>
+        <v>384</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -9055,13 +9326,13 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -9079,7 +9350,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>231</v>
+        <v>383</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9088,7 +9359,7 @@
         <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>97</v>
@@ -9097,15 +9368,15 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9128,17 +9399,15 @@
         <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -9163,13 +9432,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -9187,7 +9456,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9205,15 +9474,15 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9233,10 +9502,10 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>143</v>
+        <v>240</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>241</v>
@@ -9244,9 +9513,7 @@
       <c r="M73" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>78</v>
@@ -9295,7 +9562,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9307,21 +9574,21 @@
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9332,7 +9599,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -9341,20 +9608,18 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -9391,47 +9656,47 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>78</v>
       </c>
@@ -9449,18 +9714,20 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -9485,13 +9752,13 @@
         <v>78</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>78</v>
@@ -9509,19 +9776,19 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>348</v>
+        <v>245</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -9532,10 +9799,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9546,7 +9813,7 @@
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
@@ -9555,16 +9822,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9588,7 +9855,7 @@
         <v>78</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>78</v>
@@ -9615,19 +9882,19 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>353</v>
+        <v>402</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -9638,10 +9905,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9652,7 +9919,7 @@
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -9664,13 +9931,13 @@
         <v>86</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9721,13 +9988,13 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
@@ -9744,10 +10011,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9758,7 +10025,7 @@
         <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -9767,16 +10034,16 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>359</v>
+        <v>268</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9827,24 +10094,1096 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>359</v>
+        <v>243</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH78" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AK81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AdverseEvent.xlsx
+++ b/StructureDefinition-profile-AdverseEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="397">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.9753401-06:00</t>
+    <t>2026-02-17T14:42:26.7240824-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -457,7 +457,7 @@
     <t>The current state of the adverse event or potential adverse event.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.status` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.status` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -480,7 +480,7 @@
     <t>Indicates who or what participated in the adverse event and how they were involved.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.participant` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.participant` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:expectedInResearchStudy</t>
@@ -499,7 +499,7 @@
     <t>Considered likely or probable or anticipated in the research study.  Whether the reported event matches any of the outcomes for the patient that are considered by the study as known or likely.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.expectedInResearchStudy` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.expectedInResearchStudy` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:contributingFactor</t>
@@ -518,7 +518,7 @@
     <t>The contributing factors suspected to have increased the probability or severity of the adverse event.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.contributingFactor` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.contributingFactor` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:preventiveAction</t>
@@ -537,7 +537,7 @@
     <t>Preventive actions that contributed to avoiding the adverse event.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.preventiveAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.preventiveAction` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:mitigatingAction</t>
@@ -556,7 +556,7 @@
     <t>The ameliorating action taken after the adverse event occured in order to reduce the extent of harm.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.mitigatingAction` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.mitigatingAction` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:supportingInfo</t>
@@ -575,7 +575,7 @@
     <t>Supporting information relevant to the event.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.supportingInfo` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.supportingInfo` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.extension:note</t>
@@ -594,7 +594,7 @@
     <t>Comments made about the adverse event by the performer, subject or other participants.</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.note` is will have a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
+    <t>Element `AdverseEvent.note` has a context of AdverseEvent based on following the parent source element upwards and mapping to `AdverseEvent`.</t>
   </si>
   <si>
     <t>AdverseEvent.modifierExtension</t>
@@ -799,7 +799,7 @@
     <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `AdverseEvent.occurrence[x]` is mapped to FHIR R4 element `AdverseEvent.date`.</t>
+    <t>Element `AdverseEvent.occurrence[x]` has is mapped to FHIR R4 element `AdverseEvent.date`, but has no comparisons.</t>
   </si>
   <si>
     <t>AdverseEvent.date.value</t>
@@ -886,7 +886,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.resultingEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.resultingEffect` is mapped to FHIR R4 element `AdverseEvent.resultingCondition`.</t>
+Element `AdverseEvent.resultingEffect` has is mapped to FHIR R4 element `AdverseEvent.resultingCondition`, but has no comparisons.</t>
   </si>
   <si>
     <t>AdverseEvent.resultingCondition.reference</t>
@@ -1059,7 +1059,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.recorder` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.recorder` is mapped to FHIR R4 element `AdverseEvent.recorder`.</t>
+Element `AdverseEvent.recorder` has is mapped to FHIR R4 element `AdverseEvent.recorder`, but has no comparisons.</t>
   </si>
   <si>
     <t>AdverseEvent.recorder.reference</t>
@@ -1106,10 +1106,20 @@
     <t>AdverseEvent.suspectEntity.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>AdverseEvent.suspectEntity.extension:suspectEntity</t>
+  </si>
+  <si>
+    <t>suspectEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.suspectEntity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.suspectEntity` has is mapped to FHIR R4 element `AdverseEvent.suspectEntity`, but has no comparisons.</t>
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.modifierExtension</t>
@@ -1146,58 +1156,6 @@
     <t>Identifies the actual instance of what caused the adverse event.  May be a substance, medication, medication administration, medication statement or a device.</t>
   </si>
   <si>
-    <t>AdverseEvent.suspectEntity.instance.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.extension:instance</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.instance|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.suspectEntity.instance[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AdverseEvent.suspectEntity.instance[x]` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.instance`.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.extension:instanceCanonical</t>
-  </si>
-  <si>
-    <t>instanceCanonical</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.extension:instanceReference</t>
-  </si>
-  <si>
-    <t>instanceReference</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.reference</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.type</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.identifier</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance.display</t>
-  </si>
-  <si>
     <t>AdverseEvent.suspectEntity.causality</t>
   </si>
   <si>
@@ -1213,6 +1171,12 @@
     <t>AdverseEvent.suspectEntity.causality.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>AdverseEvent.suspectEntity.causality.modifierExtension</t>
   </si>
   <si>
@@ -1238,43 +1202,6 @@
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causalityProductRelatedness.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.productRelatedness.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension:entityRelatedness</t>
-  </si>
-  <si>
-    <t>entityRelatedness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.causality.entityRelatedness|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.suspectEntity.causality.entityRelatedness from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The result of the assessment regarding the relatedness of the suspected entity to the event.</t>
-  </si>
-  <si>
-    <t>Element `AdverseEvent.suspectEntity.causality.entityRelatedness` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.causality.productRelatedness`.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.productRelatedness.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
-    <t>string.value</t>
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causality.author</t>
@@ -1288,40 +1215,6 @@
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causalityAuthor.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.extension:author</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.suspectEntity.causality.author from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson,http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.suspectEntity.causality.author` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.suspectEntity.causality.author` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.causality.author`.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.reference</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.type</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.identifier</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.author.display</t>
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causality.method</t>
@@ -1673,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL88"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1682,8 +1575,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="70.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.54296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.23046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -7546,7 +7439,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7568,14 +7461,12 @@
         <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7612,16 +7503,14 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>245</v>
@@ -7642,19 +7531,21 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D56" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7667,26 +7558,24 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7734,7 +7623,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7743,7 +7632,7 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>136</v>
@@ -7752,47 +7641,51 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>357</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -7840,41 +7733,41 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -7886,16 +7779,16 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>268</v>
+        <v>361</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>269</v>
+        <v>362</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7946,10 +7839,10 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>243</v>
+        <v>358</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>85</v>
@@ -7958,21 +7851,21 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7992,16 +7885,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>131</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8040,19 +7933,19 @@
         <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8064,7 +7957,7 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8075,20 +7968,18 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>85</v>
@@ -8103,17 +7994,15 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>268</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8162,25 +8051,25 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61">
@@ -8188,20 +8077,18 @@
         <v>367</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8213,16 +8100,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>369</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>366</v>
+        <v>190</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8290,7 +8177,7 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>78</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62">
@@ -8298,43 +8185,43 @@
         <v>370</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>354</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>364</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8382,7 +8269,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8400,15 +8287,15 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8431,17 +8318,15 @@
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8466,13 +8351,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -8490,7 +8375,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8499,7 +8384,7 @@
         <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>97</v>
@@ -8508,15 +8393,15 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8539,17 +8424,15 @@
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -8574,13 +8457,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -8598,7 +8481,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8616,15 +8499,15 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8647,17 +8530,15 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>293</v>
+        <v>381</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -8706,7 +8587,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>296</v>
+        <v>379</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8724,15 +8605,15 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8755,17 +8636,15 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -8790,13 +8669,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>78</v>
+        <v>386</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -8814,7 +8693,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>302</v>
+        <v>383</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8832,15 +8711,15 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8863,13 +8742,13 @@
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8920,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -8943,10 +8822,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8957,7 +8836,7 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -8966,16 +8845,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>268</v>
+        <v>391</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>269</v>
+        <v>393</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9026,37 +8905,37 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>243</v>
+        <v>391</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9072,20 +8951,18 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>130</v>
+        <v>395</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9134,7 +9011,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9146,2044 +9023,12 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC74" s="2"/>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="D80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL88" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AdverseEvent.xlsx
+++ b/StructureDefinition-profile-AdverseEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="407">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7240824-06:00</t>
+    <t>2026-02-20T11:59:20.7240197-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.status}
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.participant}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>expectedInResearchStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.expectedInResearchStudy|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.expectedInResearchStudy}
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>contributingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.contributingFactor|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.contributingFactor}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>preventiveAction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction}
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>mitigatingAction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.mitigatingAction|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.mitigatingAction}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.supportingInfo|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.supportingInfo}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.note|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.note}
 </t>
   </si>
   <si>
@@ -729,167 +729,55 @@
     <t>FiveWs.who</t>
   </si>
   <si>
-    <t>AdverseEvent.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which AdverseEvent was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.  For example, if a medication administration was considered an adverse event because it resulted in a rash, then the encounter when the medication administration was given is the context.  If the patient reports the AdverseEvent during a second encounter, that second encounter is not the context.</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the event occurred</t>
-  </si>
-  <si>
-    <t>The date (and perhaps time) when the adverse event occurred.</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.id</t>
+    <t>AdverseEvent.subject.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
   </si>
   <si>
-    <t>AdverseEvent.date.extension</t>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>AdverseEvent.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>AdverseEvent.date.extension:occurrence</t>
-  </si>
-  <si>
-    <t>occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.occurrence|0.0.1-snapshot-3}
+    <t>AdverseEvent.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AdverseEvent.occurrence[x]` has is mapped to FHIR R4 element `AdverseEvent.date`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.value</t>
-  </si>
-  <si>
-    <t>Primitive value for dateTime</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>dateTime.value</t>
-  </si>
-  <si>
-    <t>AdverseEvent.detected</t>
-  </si>
-  <si>
-    <t>When the event was detected</t>
-  </si>
-  <si>
-    <t>Estimated or actual date the AdverseEvent began, in the opinion of the reporter.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recordedDate</t>
-  </si>
-  <si>
-    <t>When the event was recorded</t>
-  </si>
-  <si>
-    <t>The date on which the existence of the AdverseEvent was first recorded.</t>
-  </si>
-  <si>
-    <t>The recordedDate represents the date when this particular AdverseEvent record was created in the system, not the date of the most recent update.  The date of the last record modification can be retrieved from the resource metadata.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Effect on the subject due to this event</t>
-  </si>
-  <si>
-    <t>Includes information about the reaction that occurred as a result of exposure to a substance (for example, a drug or a chemical).</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.extension:resultingEffect</t>
-  </si>
-  <si>
-    <t>resultingEffect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.resultingEffect from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.resultingEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.resultingEffect` has is mapped to FHIR R4 element `AdverseEvent.resultingCondition`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.reference</t>
+    <t>Cross-version extension for AdverseEvent.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdverseEvent.subject` has is mapped to FHIR R4 element `AdverseEvent.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.subject.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -908,7 +796,7 @@
 </t>
   </si>
   <si>
-    <t>AdverseEvent.resultingCondition.type</t>
+    <t>AdverseEvent.subject.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -930,7 +818,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>AdverseEvent.resultingCondition.identifier</t>
+    <t>AdverseEvent.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -951,19 +839,165 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>AdverseEvent.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>AdverseEvent.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which AdverseEvent was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.  For example, if a medication administration was considered an adverse event because it resulted in a rash, then the encounter when the medication administration was given is the context.  If the patient reports the AdverseEvent during a second encounter, that second encounter is not the context.</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the event occurred</t>
+  </si>
+  <si>
+    <t>The date (and perhaps time) when the adverse event occurred.</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.extension:occurrence</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.occurrence}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.occurrence[x]` has is mapped to FHIR R4 element `AdverseEvent.date`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.value</t>
+  </si>
+  <si>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
+  </si>
+  <si>
+    <t>AdverseEvent.detected</t>
+  </si>
+  <si>
+    <t>When the event was detected</t>
+  </si>
+  <si>
+    <t>Estimated or actual date the AdverseEvent began, in the opinion of the reporter.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.recordedDate</t>
+  </si>
+  <si>
+    <t>When the event was recorded</t>
+  </si>
+  <si>
+    <t>The date on which the existence of the AdverseEvent was first recorded.</t>
+  </si>
+  <si>
+    <t>The recordedDate represents the date when this particular AdverseEvent record was created in the system, not the date of the most recent update.  The date of the last record modification can be retrieved from the resource metadata.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Effect on the subject due to this event</t>
+  </si>
+  <si>
+    <t>Includes information about the reaction that occurred as a result of exposure to a substance (for example, a drug or a chemical).</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.id</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.extension:resultingEffect</t>
+  </si>
+  <si>
+    <t>resultingEffect</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.resultingEffect from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.resultingEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `AdverseEvent.resultingEffect` has is mapped to FHIR R4 element `AdverseEvent.resultingCondition`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.reference</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.type</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition.identifier</t>
+  </si>
+  <si>
     <t>AdverseEvent.resultingCondition.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>AdverseEvent.location</t>
@@ -1055,9 +1089,6 @@
     <t>Cross-version extension for AdverseEvent.recorder from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
-  </si>
-  <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.recorder` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `AdverseEvent.recorder` has is mapped to FHIR R4 element `AdverseEvent.recorder`, but has no comparisons.</t>
   </si>
@@ -1112,7 +1143,7 @@
     <t>suspectEntity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity}
 </t>
   </si>
   <si>
@@ -1566,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL69"/>
+  <dimension ref="A1:AL76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4139,7 +4170,7 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>229</v>
@@ -4150,9 +4181,7 @@
       <c r="M24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4201,7 +4230,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4213,13 +4242,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4235,10 +4264,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4247,16 +4276,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4295,34 +4324,34 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4330,18 +4359,20 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -4356,15 +4387,17 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4413,19 +4446,19 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4436,10 +4469,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4450,7 +4483,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4459,18 +4492,20 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4507,47 +4542,47 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC27" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4565,19 +4600,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>99</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4603,13 +4638,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4627,33 +4662,33 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4673,18 +4708,20 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4733,7 +4770,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4745,21 +4782,21 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4782,15 +4819,17 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4839,7 +4878,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4857,15 +4896,15 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4888,16 +4927,16 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4947,7 +4986,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4962,7 +5001,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4970,10 +5009,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4984,7 +5023,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4996,13 +5035,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5053,13 +5092,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5068,7 +5107,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -5076,10 +5115,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5102,13 +5141,13 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5159,7 +5198,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5177,15 +5216,15 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5255,9 +5294,7 @@
       <c r="AB34" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5265,7 +5302,7 @@
         <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5288,13 +5325,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>78</v>
@@ -5316,16 +5353,16 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5375,7 +5412,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5384,7 +5421,7 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>136</v>
@@ -5398,10 +5435,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5421,20 +5458,18 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5483,7 +5518,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5492,24 +5527,24 @@
         <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5532,17 +5567,15 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>99</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5567,13 +5600,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5609,15 +5642,15 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5640,16 +5673,16 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5699,7 +5732,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5714,18 +5747,18 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5736,7 +5769,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -5748,17 +5781,15 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -5807,13 +5838,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -5825,7 +5856,7 @@
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -5853,16 +5884,16 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>304</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>231</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5913,7 +5944,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5925,21 +5956,21 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5950,7 +5981,7 @@
         <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -5959,16 +5990,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
+        <v>132</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5995,43 +6026,43 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>311</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6042,12 +6073,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6065,18 +6098,20 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6101,13 +6136,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6125,19 +6160,19 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -6148,10 +6183,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6174,15 +6209,17 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6207,13 +6244,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>320</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6231,7 +6268,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6240,7 +6277,7 @@
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>97</v>
@@ -6249,15 +6286,15 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6280,15 +6317,17 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>323</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>250</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6313,13 +6352,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6337,7 +6376,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>322</v>
+        <v>255</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6352,18 +6391,18 @@
         <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6383,18 +6422,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6443,7 +6484,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6455,21 +6496,21 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6480,7 +6521,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6489,18 +6530,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>131</v>
+        <v>263</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6537,49 +6580,47 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -6597,20 +6638,18 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6659,19 +6698,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6682,10 +6721,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6708,17 +6747,15 @@
         <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6743,13 +6780,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -6767,7 +6804,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6776,7 +6813,7 @@
         <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>97</v>
@@ -6785,15 +6822,15 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6816,17 +6853,15 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -6851,13 +6886,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -6875,7 +6910,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6893,15 +6928,15 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6924,17 +6959,15 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -6959,13 +6992,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -6983,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7001,15 +7034,15 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7032,17 +7065,15 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>240</v>
+        <v>334</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7091,7 +7122,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7106,10 +7137,10 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -7128,7 +7159,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7137,16 +7168,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>339</v>
+        <v>229</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>230</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>231</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7197,33 +7228,33 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>338</v>
+        <v>232</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7243,16 +7274,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>344</v>
+        <v>131</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7291,19 +7322,19 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>78</v>
+        <v>235</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7315,7 +7346,7 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7326,12 +7357,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7352,15 +7385,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7409,33 +7444,33 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7446,7 +7481,7 @@
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7455,18 +7490,20 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -7503,47 +7540,47 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7552,7 +7589,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -7561,19 +7598,19 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>345</v>
+        <v>251</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -7599,13 +7636,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -7623,69 +7660,67 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>356</v>
+        <v>258</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -7733,41 +7768,41 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>128</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>359</v>
+        <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -7782,15 +7817,17 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>361</v>
+        <v>263</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -7839,10 +7876,10 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>85</v>
@@ -7857,15 +7894,15 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7888,13 +7925,13 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7945,7 +7982,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -7968,10 +8005,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7982,7 +8019,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -7991,16 +8028,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>269</v>
+        <v>355</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8051,44 +8088,44 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>187</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -8100,17 +8137,15 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>229</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8159,37 +8194,37 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>354</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8202,26 +8237,22 @@
         <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
@@ -8257,19 +8288,17 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>357</v>
+        <v>236</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8287,17 +8316,19 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8306,7 +8337,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -8315,18 +8346,20 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8351,13 +8384,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>375</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -8375,19 +8408,19 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>371</v>
+        <v>236</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -8398,42 +8431,46 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -8481,41 +8518,41 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>85</v>
@@ -8530,13 +8567,13 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8587,10 +8624,10 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>85</v>
@@ -8610,10 +8647,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8624,7 +8661,7 @@
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -8636,13 +8673,13 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>207</v>
+        <v>353</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8669,13 +8706,13 @@
         <v>78</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -8693,13 +8730,13 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
@@ -8716,10 +8753,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8730,7 +8767,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -8739,16 +8776,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8799,37 +8836,37 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -8845,18 +8882,20 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>392</v>
+        <v>130</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -8905,7 +8944,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -8917,25 +8956,25 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -8948,22 +8987,26 @@
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>395</v>
+        <v>130</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -9011,7 +9054,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9023,12 +9066,754 @@
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AdverseEvent.xlsx
+++ b/StructureDefinition-profile-AdverseEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="398">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7240197-06:00</t>
+    <t>2026-02-21T13:36:54.1226633-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AdverseEvent|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.participant}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.participant|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
     <t>expectedInResearchStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.expectedInResearchStudy}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.expectedInResearchStudy|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -508,7 +508,7 @@
     <t>contributingFactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.contributingFactor}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.contributingFactor|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -527,7 +527,7 @@
     <t>preventiveAction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.preventiveAction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -546,7 +546,7 @@
     <t>mitigatingAction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.mitigatingAction}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.mitigatingAction|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -565,7 +565,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.supportingInfo}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.supportingInfo|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>note</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.note}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.note|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -729,55 +729,327 @@
     <t>FiveWs.who</t>
   </si>
   <si>
-    <t>AdverseEvent.subject.id</t>
+    <t>AdverseEvent.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which AdverseEvent was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.  For example, if a medication administration was considered an adverse event because it resulted in a rash, then the encounter when the medication administration was given is the context.  If the patient reports the AdverseEvent during a second encounter, that second encounter is not the context.</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the event occurred</t>
+  </si>
+  <si>
+    <t>The date (and perhaps time) when the adverse event occurred.</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.extension:occurrence</t>
+  </si>
+  <si>
+    <t>occurrence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.occurrence|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.occurrence[x]` is mapped to FHIR R4 element `AdverseEvent.date` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.date.value</t>
+  </si>
+  <si>
+    <t>Primitive value for dateTime</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>dateTime.value</t>
+  </si>
+  <si>
+    <t>AdverseEvent.detected</t>
+  </si>
+  <si>
+    <t>When the event was detected</t>
+  </si>
+  <si>
+    <t>Estimated or actual date the AdverseEvent began, in the opinion of the reporter.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.recordedDate</t>
+  </si>
+  <si>
+    <t>When the event was recorded</t>
+  </si>
+  <si>
+    <t>The date on which the existence of the AdverseEvent was first recorded.</t>
+  </si>
+  <si>
+    <t>The recordedDate represents the date when this particular AdverseEvent record was created in the system, not the date of the most recent update.  The date of the last record modification can be retrieved from the resource metadata.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>AdverseEvent.resultingCondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Effect on the subject due to this event</t>
+  </si>
+  <si>
+    <t>Includes information about the reaction that occurred as a result of exposure to a substance (for example, a drug or a chemical).</t>
+  </si>
+  <si>
+    <t>AdverseEvent.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Location where adverse event occurred</t>
+  </si>
+  <si>
+    <t>The information about where the adverse event occurred.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.seriousness</t>
+  </si>
+  <si>
+    <t>Seriousness of the event</t>
+  </si>
+  <si>
+    <t>Assessment whether this event was of real importance.</t>
+  </si>
+  <si>
+    <t>Overall seriousness of this event for the patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adverse-event-seriousness|4.0.1</t>
+  </si>
+  <si>
+    <t>AdverseEvent.severity</t>
+  </si>
+  <si>
+    <t>mild | moderate | severe</t>
+  </si>
+  <si>
+    <t>Describes the severity of the adverse event, in relation to the subject. Contrast to AdverseEvent.seriousness - a severe rash might not be serious, but a mild heart problem is.</t>
+  </si>
+  <si>
+    <t>The severity of the adverse event itself, in direct relation to the subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adverse-event-severity|4.0.1</t>
+  </si>
+  <si>
+    <t>AdverseEvent.outcome</t>
+  </si>
+  <si>
+    <t>resolved | recovering | ongoing | resolvedWithSequelae | fatal | unknown</t>
+  </si>
+  <si>
+    <t>Describes the type of outcome from the adverse event.</t>
+  </si>
+  <si>
+    <t>TODO (and should this be required?).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adverse-event-outcome|4.0.1</t>
+  </si>
+  <si>
+    <t>AdverseEvent.recorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who recorded the adverse event</t>
+  </si>
+  <si>
+    <t>Information on who recorded the adverse event.  May be the patient or a practitioner.</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>AdverseEvent.contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who  was involved in the adverse event or the potential adverse event</t>
+  </si>
+  <si>
+    <t>Parties that may or should contribute or have contributed information to the adverse event, which can consist of one or more activities.  Such information includes information leading to the decision to perform the activity and how to perform the activity (e.g. consultant), information that the activity itself seeks to reveal (e.g. informant of clinical history), or information about what activity was performed (e.g. informant witness).</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>The suspected agent causing the adverse event</t>
+  </si>
+  <si>
+    <t>Describes the entity that is suspected to have caused the adverse event.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.id</t>
+  </si>
+  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
     <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>AdverseEvent.subject.extension</t>
+    <t>AdverseEvent.suspectEntity.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substance or Medication or Device
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Immunization|4.0.1|Procedure|4.0.1|Substance|4.0.1|Medication|4.0.1|MedicationAdministration|4.0.1|MedicationStatement|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Refers to the specific entity that caused the adverse event</t>
+  </si>
+  <si>
+    <t>Identifies the actual instance of what caused the adverse event.  May be a substance, medication, medication administration, medication statement or a device.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.id</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.extension</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>AdverseEvent.suspectEntity.instance.extension:instance</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.instance|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for AdverseEvent.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/ResearchSubject in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.subject` has is mapped to FHIR R4 element `AdverseEvent.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.subject.reference</t>
+    <t>Cross-version extension for AdverseEvent.suspectEntity.instance[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.suspectEntity.instance[x]` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.instance` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.extension:instanceCanonical</t>
+  </si>
+  <si>
+    <t>instanceCanonical</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.extension:instanceReference</t>
+  </si>
+  <si>
+    <t>instanceReference</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct,http://hl7.org/fhir/StructureDefinition/ResearchStudy in FHIR R4</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.instance.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -796,7 +1068,7 @@
 </t>
   </si>
   <si>
-    <t>AdverseEvent.subject.type</t>
+    <t>AdverseEvent.suspectEntity.instance.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -818,7 +1090,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>AdverseEvent.subject.identifier</t>
+    <t>AdverseEvent.suspectEntity.instance.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -839,7 +1111,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>AdverseEvent.subject.display</t>
+    <t>AdverseEvent.suspectEntity.instance.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -854,385 +1126,83 @@
     <t>Reference.display</t>
   </si>
   <si>
-    <t>AdverseEvent.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t>AdverseEvent.suspectEntity.causality</t>
+  </si>
+  <si>
+    <t>Information on the possible cause of the event</t>
+  </si>
+  <si>
+    <t>Information on the possible cause of the event.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.id</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.modifierExtension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.assessment</t>
+  </si>
+  <si>
+    <t>Assessment of if the entity caused the event</t>
+  </si>
+  <si>
+    <t>Assessment of if the entity caused the event.</t>
+  </si>
+  <si>
+    <t>Codes for the assessment of whether the entity caused the event.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/adverse-event-causality-assess|4.0.1</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causalityProductRelatedness</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causalityProductRelatedness.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness.id</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness.extension:entityRelatedness</t>
+  </si>
+  <si>
+    <t>entityRelatedness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity.causality.entityRelatedness|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which AdverseEvent was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.  For example, if a medication administration was considered an adverse event because it resulted in a rash, then the encounter when the medication administration was given is the context.  If the patient reports the AdverseEvent during a second encounter, that second encounter is not the context.</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the event occurred</t>
-  </si>
-  <si>
-    <t>The date (and perhaps time) when the adverse event occurred.</t>
-  </si>
-  <si>
-    <t>FiveWs.init</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.extension:occurrence</t>
-  </si>
-  <si>
-    <t>occurrence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.occurrence}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.occurrence[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AdverseEvent.occurrence[x]` has is mapped to FHIR R4 element `AdverseEvent.date`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.date.value</t>
-  </si>
-  <si>
-    <t>Primitive value for dateTime</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>dateTime.value</t>
-  </si>
-  <si>
-    <t>AdverseEvent.detected</t>
-  </si>
-  <si>
-    <t>When the event was detected</t>
-  </si>
-  <si>
-    <t>Estimated or actual date the AdverseEvent began, in the opinion of the reporter.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recordedDate</t>
-  </si>
-  <si>
-    <t>When the event was recorded</t>
-  </si>
-  <si>
-    <t>The date on which the existence of the AdverseEvent was first recorded.</t>
-  </si>
-  <si>
-    <t>The recordedDate represents the date when this particular AdverseEvent record was created in the system, not the date of the most recent update.  The date of the last record modification can be retrieved from the resource metadata.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Effect on the subject due to this event</t>
-  </si>
-  <si>
-    <t>Includes information about the reaction that occurred as a result of exposure to a substance (for example, a drug or a chemical).</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.extension:resultingEffect</t>
-  </si>
-  <si>
-    <t>resultingEffect</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.resultingEffect from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Observation in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.resultingEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.resultingEffect` has is mapped to FHIR R4 element `AdverseEvent.resultingCondition`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.reference</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.type</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.identifier</t>
-  </si>
-  <si>
-    <t>AdverseEvent.resultingCondition.display</t>
-  </si>
-  <si>
-    <t>AdverseEvent.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Location where adverse event occurred</t>
-  </si>
-  <si>
-    <t>The information about where the adverse event occurred.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.seriousness</t>
-  </si>
-  <si>
-    <t>Seriousness of the event</t>
-  </si>
-  <si>
-    <t>Assessment whether this event was of real importance.</t>
-  </si>
-  <si>
-    <t>Overall seriousness of this event for the patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/adverse-event-seriousness|4.0.1</t>
-  </si>
-  <si>
-    <t>AdverseEvent.severity</t>
-  </si>
-  <si>
-    <t>mild | moderate | severe</t>
-  </si>
-  <si>
-    <t>Describes the severity of the adverse event, in relation to the subject. Contrast to AdverseEvent.seriousness - a severe rash might not be serious, but a mild heart problem is.</t>
-  </si>
-  <si>
-    <t>The severity of the adverse event itself, in direct relation to the subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/adverse-event-severity|4.0.1</t>
-  </si>
-  <si>
-    <t>AdverseEvent.outcome</t>
-  </si>
-  <si>
-    <t>resolved | recovering | ongoing | resolvedWithSequelae | fatal | unknown</t>
-  </si>
-  <si>
-    <t>Describes the type of outcome from the adverse event.</t>
-  </si>
-  <si>
-    <t>TODO (and should this be required?).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/adverse-event-outcome|4.0.1</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who recorded the adverse event</t>
-  </si>
-  <si>
-    <t>Information on who recorded the adverse event.  May be the patient or a practitioner.</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.extension:recorder</t>
-  </si>
-  <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.recorder from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AdverseEvent.recorder` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AdverseEvent.recorder` has is mapped to FHIR R4 element `AdverseEvent.recorder`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.reference</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.type</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.identifier</t>
-  </si>
-  <si>
-    <t>AdverseEvent.recorder.display</t>
-  </si>
-  <si>
-    <t>AdverseEvent.contributor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who  was involved in the adverse event or the potential adverse event</t>
-  </si>
-  <si>
-    <t>Parties that may or should contribute or have contributed information to the adverse event, which can consist of one or more activities.  Such information includes information leading to the decision to perform the activity and how to perform the activity (e.g. consultant), information that the activity itself seeks to reveal (e.g. informant of clinical history), or information about what activity was performed (e.g. informant witness).</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>The suspected agent causing the adverse event</t>
-  </si>
-  <si>
-    <t>Describes the entity that is suspected to have caused the adverse event.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.extension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.extension:suspectEntity</t>
-  </si>
-  <si>
-    <t>suspectEntity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AdverseEvent.suspectEntity}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AdverseEvent.suspectEntity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AdverseEvent.suspectEntity` has is mapped to FHIR R4 element `AdverseEvent.suspectEntity`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Substance or Medication or Device
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Immunization|4.0.1|Procedure|4.0.1|Substance|4.0.1|Medication|4.0.1|MedicationAdministration|4.0.1|MedicationStatement|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Refers to the specific entity that caused the adverse event</t>
-  </si>
-  <si>
-    <t>Identifies the actual instance of what caused the adverse event.  May be a substance, medication, medication administration, medication statement or a device.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality</t>
-  </si>
-  <si>
-    <t>Information on the possible cause of the event</t>
-  </si>
-  <si>
-    <t>Information on the possible cause of the event.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.id</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.modifierExtension</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.assessment</t>
-  </si>
-  <si>
-    <t>Assessment of if the entity caused the event</t>
-  </si>
-  <si>
-    <t>Assessment of if the entity caused the event.</t>
-  </si>
-  <si>
-    <t>Codes for the assessment of whether the entity caused the event.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/adverse-event-causality-assess|4.0.1</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causality.productRelatedness</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causalityProductRelatedness</t>
-  </si>
-  <si>
-    <t>AdverseEvent.suspectEntity.causalityProductRelatedness.</t>
+    <t>Cross-version extension for AdverseEvent.suspectEntity.causality.entityRelatedness from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The result of the assessment regarding the relatedness of the suspected entity to the event.</t>
+  </si>
+  <si>
+    <t>Element `AdverseEvent.suspectEntity.causality.entityRelatedness` is mapped to FHIR R4 element `AdverseEvent.suspectEntity.causality.productRelatedness` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AdverseEvent.suspectEntity.causality.productRelatedness.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>1048576</t>
+  </si>
+  <si>
+    <t>string.value</t>
   </si>
   <si>
     <t>AdverseEvent.suspectEntity.causality.author</t>
@@ -1597,7 +1567,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL76"/>
+  <dimension ref="A1:AL67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1606,8 +1576,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="47.23046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.44921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.67578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -4170,7 +4140,7 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>229</v>
@@ -4181,7 +4151,9 @@
       <c r="M24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4230,7 +4202,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4242,13 +4214,13 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4264,11 +4236,11 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4276,16 +4248,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>132</v>
+        <v>237</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4324,34 +4296,34 @@
         <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>78</v>
+        <v>238</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4359,20 +4331,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>85</v>
@@ -4387,17 +4357,15 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>242</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4446,19 +4414,19 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4469,10 +4437,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4483,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
@@ -4492,20 +4460,18 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4542,47 +4508,47 @@
         <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4600,19 +4566,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4638,13 +4604,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -4662,33 +4628,33 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4708,20 +4674,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4770,7 +4734,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4782,21 +4746,21 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4819,17 +4783,15 @@
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4878,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4896,15 +4858,15 @@
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4927,16 +4889,16 @@
         <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4986,7 +4948,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5001,7 +4963,7 @@
         <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -5009,10 +4971,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5023,7 +4985,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5035,13 +4997,13 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5092,13 +5054,13 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
@@ -5107,7 +5069,7 @@
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -5115,10 +5077,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5138,16 +5100,16 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5198,7 +5160,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5210,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5221,10 +5183,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5235,7 +5197,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5244,16 +5206,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5280,41 +5242,43 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC34" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5325,14 +5289,12 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5350,20 +5312,18 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>207</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5388,13 +5348,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5412,19 +5372,19 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5435,10 +5395,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5458,16 +5418,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5494,13 +5454,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5518,7 +5478,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5530,7 +5490,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5541,10 +5501,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5567,13 +5527,13 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5624,7 +5584,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5639,7 +5599,7 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5647,10 +5607,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5661,7 +5621,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5673,17 +5633,15 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -5732,13 +5690,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -5747,7 +5705,7 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -5755,10 +5713,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5781,13 +5739,13 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5838,7 +5796,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5861,10 +5819,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5887,13 +5845,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5944,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5962,19 +5920,19 @@
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>233</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5996,12 +5954,14 @@
         <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6038,19 +5998,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6068,51 +6028,51 @@
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="C42" t="s" s="2">
         <v>306</v>
       </c>
+      <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6160,7 +6120,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6178,23 +6138,23 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>85</v>
@@ -6209,17 +6169,15 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6268,16 +6226,16 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>97</v>
@@ -6286,15 +6244,15 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6314,20 +6272,18 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6352,13 +6308,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6332,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6388,21 +6344,21 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6413,7 +6369,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6422,20 +6378,18 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>257</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6472,53 +6426,55 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>318</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>85</v>
@@ -6530,19 +6486,19 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6592,41 +6548,43 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>85</v>
@@ -6638,18 +6596,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -6698,19 +6658,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6721,18 +6681,20 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>85</v>
@@ -6744,18 +6706,20 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -6780,13 +6744,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -6804,19 +6768,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>318</v>
+        <v>245</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -6827,10 +6791,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6853,15 +6817,17 @@
         <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -6886,13 +6852,13 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>327</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -6910,7 +6876,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -6919,7 +6885,7 @@
         <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>97</v>
@@ -6928,15 +6894,15 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6959,15 +6925,17 @@
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -6992,13 +6960,13 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -7016,7 +6984,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7034,15 +7002,15 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7065,15 +7033,17 @@
         <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>334</v>
+        <v>194</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7122,7 +7092,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7137,18 +7107,18 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7168,18 +7138,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7228,7 +7200,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7240,21 +7212,21 @@
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>233</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7274,16 +7246,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>132</v>
+        <v>356</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7322,19 +7294,19 @@
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>235</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>236</v>
+        <v>354</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7346,7 +7318,7 @@
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7357,14 +7329,12 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -7385,17 +7355,15 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7444,44 +7412,44 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>78</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -7490,19 +7458,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7552,67 +7520,69 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>128</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>250</v>
+        <v>308</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>251</v>
+        <v>309</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
       </c>
@@ -7636,13 +7606,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>254</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -7660,19 +7630,19 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -7683,10 +7653,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7709,17 +7679,15 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -7744,13 +7712,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -7768,7 +7736,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -7786,15 +7754,15 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7817,17 +7785,15 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -7876,7 +7842,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -7894,15 +7860,15 @@
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7913,7 +7879,7 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -7922,16 +7888,16 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>349</v>
+        <v>240</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7982,19 +7948,19 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8005,10 +7971,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8028,16 +7994,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>354</v>
+        <v>131</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8076,19 +8042,17 @@
         <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8100,7 +8064,7 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -8111,12 +8075,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>78</v>
       </c>
@@ -8137,15 +8103,17 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>229</v>
+        <v>372</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8194,33 +8162,33 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>233</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8231,7 +8199,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -8243,13 +8211,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>131</v>
+        <v>377</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8273,7 +8241,7 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>78</v>
+        <v>378</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>78</v>
@@ -8288,29 +8256,31 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>236</v>
+        <v>379</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -8321,14 +8291,12 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>78</v>
       </c>
@@ -8337,7 +8305,7 @@
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -8346,20 +8314,18 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -8408,19 +8374,19 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
@@ -8431,46 +8397,42 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>364</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>130</v>
+        <v>207</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -8494,13 +8456,13 @@
         <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>78</v>
+        <v>387</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>78</v>
@@ -8518,44 +8480,44 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -8567,13 +8529,13 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8624,13 +8586,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -8647,10 +8609,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8673,13 +8635,13 @@
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8730,7 +8692,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8753,10 +8715,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8767,7 +8729,7 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -8776,16 +8738,16 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>229</v>
+        <v>396</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>230</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8836,984 +8798,24 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>232</v>
+        <v>395</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
     </row>
